--- a/src/test/java/resources/ScenarioStatus.xlsx
+++ b/src/test/java/resources/ScenarioStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
   <si>
     <t>login-functionality;login-with-valid-username-and-password</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>07.11.21 06.49</t>
+  </si>
+  <si>
+    <t>07.11.21 07.03</t>
+  </si>
+  <si>
+    <t>07.11.21 07.04</t>
+  </si>
+  <si>
+    <t>07.11.21 07.12</t>
   </si>
 </sst>
 </file>
@@ -399,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D33"/>
@@ -519,6 +528,62 @@
         <v>3</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
